--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2248.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2248.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.229088177958665</v>
+        <v>1.146479845046997</v>
       </c>
       <c r="B1">
-        <v>2.427682831395942</v>
+        <v>2.576543092727661</v>
       </c>
       <c r="C1">
-        <v>7.593914750742896</v>
+        <v>6.031661987304688</v>
       </c>
       <c r="D1">
-        <v>2.304636971265724</v>
+        <v>2.1337730884552</v>
       </c>
       <c r="E1">
-        <v>1.151791784721522</v>
+        <v>1.228684306144714</v>
       </c>
     </row>
   </sheetData>
